--- a/画面テスト仕様書/商品管理画面テスト仕様書.xlsx
+++ b/画面テスト仕様書/商品管理画面テスト仕様書.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8252\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamac/Desktop/system-devel/画面テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555501E-2930-414E-BCC9-D249FFA85BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="商品管理画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -451,11 +452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1091,17 +1092,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1263,18 +1253,102 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1282,47 +1356,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,30 +1416,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,29 +1425,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1400,7 +1444,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1408,13 +1458,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,58 +1468,100 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1486,182 +1572,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1669,40 +1674,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 4" xfId="1"/>
+    <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1979,718 +1972,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="51">
         <v>43805</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" ht="12" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="9" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="34" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="59"/>
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:13" ht="28.75" customHeight="1">
+      <c r="A6" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="121">
         <v>1</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="45" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="129">
         <v>43805</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="94" t="s">
+      <c r="L6" s="130"/>
+      <c r="M6" s="133" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="93"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+    <row r="7" spans="1:13" ht="30.5" customHeight="1" thickBot="1">
+      <c r="A7" s="120"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="45" t="s">
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="123" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="134"/>
+    </row>
+    <row r="8" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="96" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="45" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="66">
         <v>43805</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48" t="s">
+      <c r="L8" s="67"/>
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="124" t="s">
+    <row r="9" spans="1:13" ht="27.5" customHeight="1">
+      <c r="A9" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="101">
         <v>3</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="54" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="82">
         <v>43805</v>
       </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="111" t="s">
+      <c r="L9" s="83"/>
+      <c r="M9" s="117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107" t="s">
+    <row r="10" spans="1:13" ht="20.5" customHeight="1">
+      <c r="A10" s="137"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="54" t="s">
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="124" t="s">
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A11" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="101">
         <v>4</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="112" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="54" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="115">
+      <c r="K11" s="82">
         <v>43805</v>
       </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="111" t="s">
+      <c r="L11" s="83"/>
+      <c r="M11" s="117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="125"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="112" t="s">
+    <row r="12" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A12" s="137"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="54" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="126" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="34.75" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="9">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="58" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="54" t="s">
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="87">
         <v>43805</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57" t="s">
+      <c r="L13" s="88"/>
+      <c r="M13" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:13" ht="26.5" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="12">
         <v>6</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="54" t="s">
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="87">
         <v>43805</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57" t="s">
+      <c r="L14" s="88"/>
+      <c r="M14" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="12">
         <v>7</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="54" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="87">
         <v>43805</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57" t="s">
+      <c r="L15" s="88"/>
+      <c r="M15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="12">
         <v>8</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="65" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="54" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="87">
         <v>43805</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57" t="s">
+      <c r="L16" s="88"/>
+      <c r="M16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="12">
         <v>9</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="54" t="s">
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="87">
         <v>43805</v>
       </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57" t="s">
+      <c r="L17" s="88"/>
+      <c r="M17" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="137" t="s">
+    <row r="18" spans="1:13" ht="33.5" customHeight="1">
+      <c r="A18" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="135">
+      <c r="B18" s="113">
         <v>10</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="132" t="s">
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="54" t="s">
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="115">
+      <c r="K18" s="82">
         <v>43805</v>
       </c>
-      <c r="L18" s="116"/>
-      <c r="M18" s="111" t="s">
+      <c r="L18" s="83"/>
+      <c r="M18" s="117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="138"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="132" t="s">
+    <row r="19" spans="1:13" ht="33" customHeight="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="54" t="s">
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="66" t="s">
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="118"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="12">
         <v>11</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64" t="s">
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="54" t="s">
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="87">
         <v>43805</v>
       </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57" t="s">
+      <c r="L20" s="88"/>
+      <c r="M20" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="12">
         <v>12</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="54" t="s">
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="87">
         <v>43806</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57" t="s">
+      <c r="L21" s="88"/>
+      <c r="M21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="68"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="68"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="68"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="68"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="68"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="68"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="68"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="68"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="68"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="68"/>
-    </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="77"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" ht="19" thickBot="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="99">
@@ -2776,7 +2769,6 @@
     <mergeCell ref="C11:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K11:L12"/>
-    <mergeCell ref="J4:M4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="K5:L5"/>
@@ -2793,6 +2785,7 @@
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
